--- a/ClinicEx_2024/Resources/PruebaFormato.xlsx
+++ b/ClinicEx_2024/Resources/PruebaFormato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulan\Desktop\ClinicEx_2024\ClinicEx_2024\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8758DE74-0582-4F60-B88D-E8ABB5C0FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481B0DC-7379-4417-9586-37AF871B4718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{90332E85-869D-4D8E-A71A-CEC501E0D92E}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>PER ABDOMINAL</t>
   </si>
   <si>
-    <t>{Peso} kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">{IMC} </t>
   </si>
   <si>
@@ -115,28 +112,6 @@
   </si>
   <si>
     <t>{eNutricional}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">EXPEDIENTE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {consulta}</t>
-    </r>
   </si>
   <si>
     <t>ANTECEDENTES DE IMPORTANCIA</t>
@@ -219,12 +194,18 @@
       <t>{Al}</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">{Peso} </t>
+  </si>
+  <si>
+    <t>{consulta}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,18 +237,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Eras Demi ITC"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Eras Demi ITC"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Eras Demi ITC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -456,12 +441,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -480,49 +504,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,8 +543,8 @@
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>160909</xdr:rowOff>
     </xdr:to>
@@ -899,16 +890,16 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
@@ -917,71 +908,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="H4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,28 +982,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="33" t="s">
+      <c r="A6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1023,10 +1014,10 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1037,18 +1028,18 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1084,364 +1075,364 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="H11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1451,73 +1442,73 @@
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="A40" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1527,140 +1518,126 @@
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
+      <c r="A46" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
+      <c r="A52" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A52:J55"/>
@@ -1677,6 +1654,20 @@
     <mergeCell ref="A15:J19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
